--- a/biology/Zoologie/Horama_panthalon/Horama_panthalon.xlsx
+++ b/biology/Zoologie/Horama_panthalon/Horama_panthalon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Horama panthalon est une espèce de lépidoptères (papillons) américains de la famille des Erebidae et de la sous-famille des Arctiinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago est un papillon dont l'apparence imite celle d'une guêpe (Polistes). Il a une envergure de 32 à 34 mm[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago est un papillon dont l'apparence imite celle d'une guêpe (Polistes). Il a une envergure de 32 à 34 mm. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Phénologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vole toute l'année aux États-Unis[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année aux États-Unis. 
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans la majeure partie de l'Amérique du Sud, et au nord jusqu'au Mexique, au Sud de l'Arizona, au Sud-Est du Nouveau-Mexique, au Texas et en Floride.
 </t>
@@ -604,9 +622,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (28 octobre 2020)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (28 octobre 2020) :
 Zygaena panthalon Fabricius, 1793
 Mastigocera tibialis Butler, 1876
 Horama serena Schaus, 1924
@@ -638,9 +658,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>On distingue plusieurs sous-espèces[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>On distingue plusieurs sous-espèces :
 Horama panthalon panthalon (Fabricius, 1793) — Antilles, Panama, Nord de l'Amérique du Sud.
 Horama panthalon texanus (Grote, 1867) — Sud des États-Unis, Mexique, Amérique centrale.
 Horama panthalon viridifusa (Schaus, 1904) — Sud de l'Amérique du Sud.</t>
